--- a/doc/Estimativa de Tamanho(EST).xlsx
+++ b/doc/Estimativa de Tamanho(EST).xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Atores" vbProcedure="false">Atores!$B$13:$C$16</definedName>
-    <definedName function="false" hidden="false" name="CUC" vbProcedure="false">'RFS ou RFC'!$D$13:$D$39</definedName>
+    <definedName function="false" hidden="false" name="CUC" vbProcedure="false">'RFS ou RFC'!$D$13:$D$38</definedName>
     <definedName function="false" hidden="false" name="FCAMB" vbProcedure="false">Fatores!$G$36</definedName>
     <definedName function="false" hidden="false" name="FCTEC" vbProcedure="false">Fatores!$E$22</definedName>
     <definedName function="false" hidden="false" name="ITEC" vbProcedure="false">Fatores!$E$22</definedName>
@@ -24,10 +24,10 @@
     <definedName function="false" hidden="false" name="PTUC" vbProcedure="false">'RFS ou RFC'!$D$10</definedName>
     <definedName function="false" hidden="false" name="TotalDiasUteisProjeto" vbProcedure="false">geral!#ref!</definedName>
     <definedName function="false" hidden="false" name="TotalHorasProjeto" vbProcedure="false">geral!#ref!</definedName>
-    <definedName function="false" hidden="false" name="UC" vbProcedure="false">'RFS ou RFC'!$A$12:$C$39</definedName>
+    <definedName function="false" hidden="false" name="UC" vbProcedure="false">'RFS ou RFC'!$A$12:$C$38</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Atores!$B$13:$C$16</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_Toc112831755" vbProcedure="false">'RFS ou RFC'!$B$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'RFS ou RFC'!$A$12:$E$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'RFS ou RFC'!$A$12:$E$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
   <si>
     <t xml:space="preserve">Estimativa de Esforço de Projeto baseado em                                                                Pontos de Caso de Uso (vs 1.1)</t>
   </si>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">Fase de Desenvolvimento</t>
   </si>
   <si>
-    <t xml:space="preserve">Potanto o projeto no Cronograma tem 7+4 = 11 horas</t>
+    <t xml:space="preserve">Potanto o projeto no Cronograma tem 4+6 = 10 horas</t>
   </si>
   <si>
     <t xml:space="preserve">Processo de Monitoramento e Controle</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">1) Preencha a Planilha Atores indicando os atores(usuários do sistema) e a sua complexidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">Portanto Gerencia de Configuração no cronograma tem 7+4 = 11 horas</t>
+    <t xml:space="preserve">Portanto Gerencia de Configuração no cronograma tem 6+3 = 9 horas</t>
   </si>
   <si>
     <t xml:space="preserve">2) Preencha a Planilha RFS ou RFC indicando os Requisitos e quantidade de transações.</t>
@@ -407,22 +407,13 @@
     <t xml:space="preserve">[RFC04]</t>
   </si>
   <si>
-    <t xml:space="preserve">Manter Pagamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clientes, Listas, Produtos, Fornecedores, Entregas</t>
+    <t xml:space="preserve">Manter Fornecedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador, Produtos</t>
   </si>
   <si>
     <t xml:space="preserve">[RFC05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manter Fornecedores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrador, Produtos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[RFC06]</t>
   </si>
   <si>
     <t xml:space="preserve">Manter Entregas</t>
@@ -1257,7 +1248,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1764,9 +1755,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>418320</xdr:colOff>
+      <xdr:colOff>417960</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1776,7 +1767,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10049760" cy="9363240"/>
+          <a:ext cx="10045800" cy="9362880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1809,9 +1800,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>418320</xdr:colOff>
+      <xdr:colOff>417960</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1821,7 +1812,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10049760" cy="9363240"/>
+          <a:ext cx="10045800" cy="9362880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1854,9 +1845,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>418320</xdr:colOff>
+      <xdr:colOff>417960</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1866,7 +1857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10049760" cy="9363240"/>
+          <a:ext cx="10045800" cy="9362880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1904,8 +1895,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3733200</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>3732840</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1916,7 +1907,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9860040" cy="9524160"/>
+          <a:ext cx="9859320" cy="9362160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1949,8 +1940,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3733200</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>3732840</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1961,7 +1952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9860040" cy="9524160"/>
+          <a:ext cx="9859320" cy="9362160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1994,8 +1985,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3733200</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>3732840</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2006,7 +1997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9860040" cy="9524160"/>
+          <a:ext cx="9859320" cy="9362160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2039,8 +2030,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3733200</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:colOff>3732840</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2051,7 +2042,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9860040" cy="9524160"/>
+          <a:ext cx="9859320" cy="9362160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2086,8 +2077,8 @@
   </sheetPr>
   <dimension ref="A3:Z37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2158,7 +2149,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2207,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="n">
         <f aca="false">(Atores!D10+'RFS ou RFC'!D10)*Fatores!E22*Fatores!G36</f>
-        <v>34.357</v>
+        <v>29.3045</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>14</v>
@@ -2225,7 +2216,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="21" t="n">
         <f aca="false">$E$13*$E$14*K13</f>
-        <v>4.80998</v>
+        <v>4.10263</v>
       </c>
       <c r="K13" s="22" t="n">
         <f aca="false">dadoshistoricos!E31</f>
@@ -2249,7 +2240,7 @@
       <c r="I14" s="26"/>
       <c r="J14" s="27" t="n">
         <f aca="false">$E$13*$E$14*K14</f>
-        <v>16.9494533333333</v>
+        <v>14.4568866666666</v>
       </c>
       <c r="K14" s="28" t="n">
         <f aca="false">dadoshistoricos!F31*0.8</f>
@@ -2268,7 +2259,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="27" t="n">
         <f aca="false">$E$13*$E$14*K15</f>
-        <v>4.23736333333333</v>
+        <v>3.61422166666667</v>
       </c>
       <c r="K15" s="30" t="n">
         <f aca="false">dadoshistoricos!F31*0.2</f>
@@ -2287,7 +2278,7 @@
       <c r="I16" s="26"/>
       <c r="J16" s="27" t="n">
         <f aca="false">$E$13*$E$14*K16</f>
-        <v>6.8714</v>
+        <v>5.8609</v>
       </c>
       <c r="K16" s="30" t="n">
         <f aca="false">dadoshistoricos!G31</f>
@@ -2317,7 +2308,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="27" t="n">
         <f aca="false">$E$13*$E$14*K17</f>
-        <v>57.2616666666667</v>
+        <v>48.8408333333334</v>
       </c>
       <c r="K17" s="30" t="n">
         <f aca="false">dadoshistoricos!H31</f>
@@ -2347,7 +2338,7 @@
       <c r="I18" s="33"/>
       <c r="J18" s="27" t="n">
         <f aca="false">$E$13*$E$14*K18</f>
-        <v>2.29046666666667</v>
+        <v>1.95363333333333</v>
       </c>
       <c r="K18" s="30" t="n">
         <f aca="false">dadoshistoricos!I31</f>
@@ -2365,7 +2356,7 @@
       <c r="I19" s="33"/>
       <c r="J19" s="27" t="n">
         <f aca="false">$E$13*$E$14*K19</f>
-        <v>6.98592333333333</v>
+        <v>5.95858166666667</v>
       </c>
       <c r="K19" s="30" t="n">
         <f aca="false">dadoshistoricos!J31</f>
@@ -2399,7 +2390,7 @@
       <c r="I20" s="33"/>
       <c r="J20" s="27" t="n">
         <f aca="false">$E$13*$E$14*K20</f>
-        <v>3.66474666666667</v>
+        <v>3.12581333333334</v>
       </c>
       <c r="K20" s="30" t="n">
         <f aca="false">dadoshistoricos!K31</f>
@@ -2417,7 +2408,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="37" t="n">
         <f aca="false">SUM(J13:J20)</f>
-        <v>103.071</v>
+        <v>87.9135</v>
       </c>
       <c r="K21" s="38" t="n">
         <f aca="false">SUM(K13:K20)</f>
@@ -2834,10 +2825,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1010"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2845,7 +2836,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="43.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="42" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="42" width="81.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="42" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="42" width="72.02"/>
@@ -2919,7 +2910,7 @@
       </c>
       <c r="D9" s="50" t="n">
         <f aca="false">COUNTIF(CUC,B9)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="74"/>
     </row>
@@ -2929,7 +2920,7 @@
       </c>
       <c r="D10" s="80" t="n">
         <f aca="false">(C7*D7)+(C8*D8)+(C9*D9)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,7 +3005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="85" t="s">
         <v>65</v>
       </c>
@@ -3022,16 +3013,16 @@
         <v>66</v>
       </c>
       <c r="C16" s="87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>67</v>
       </c>
       <c r="O16" s="89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,37 +3033,28 @@
         <v>69</v>
       </c>
       <c r="C17" s="87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>70</v>
       </c>
+      <c r="H17" s="65"/>
       <c r="O17" s="89" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="87" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="86" t="s">
-        <v>73</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="85"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="86"/>
       <c r="H18" s="65"/>
       <c r="O18" s="89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,10 +3065,10 @@
       <c r="E19" s="86"/>
       <c r="H19" s="65"/>
       <c r="O19" s="89" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="85"/>
       <c r="B20" s="86"/>
       <c r="C20" s="87"/>
@@ -3094,10 +3076,10 @@
       <c r="E20" s="86"/>
       <c r="H20" s="65"/>
       <c r="O20" s="89" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="85"/>
       <c r="B21" s="86"/>
       <c r="C21" s="87"/>
@@ -3105,7 +3087,7 @@
       <c r="E21" s="86"/>
       <c r="H21" s="65"/>
       <c r="O21" s="89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,9 +3096,8 @@
       <c r="C22" s="87"/>
       <c r="D22" s="88"/>
       <c r="E22" s="86"/>
-      <c r="H22" s="65"/>
       <c r="O22" s="89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,7 +3107,7 @@
       <c r="D23" s="88"/>
       <c r="E23" s="86"/>
       <c r="O23" s="89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,17 +3117,17 @@
       <c r="D24" s="88"/>
       <c r="E24" s="86"/>
       <c r="O24" s="89" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="85"/>
       <c r="B25" s="86"/>
       <c r="C25" s="87"/>
       <c r="D25" s="88"/>
       <c r="E25" s="86"/>
       <c r="O25" s="89" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,7 +3137,7 @@
       <c r="D26" s="88"/>
       <c r="E26" s="86"/>
       <c r="O26" s="89" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,7 +3147,7 @@
       <c r="D27" s="88"/>
       <c r="E27" s="86"/>
       <c r="O27" s="89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,7 +3157,7 @@
       <c r="D28" s="88"/>
       <c r="E28" s="86"/>
       <c r="O28" s="89" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,7 +3167,7 @@
       <c r="D29" s="88"/>
       <c r="E29" s="86"/>
       <c r="O29" s="89" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,7 +3177,7 @@
       <c r="D30" s="88"/>
       <c r="E30" s="86"/>
       <c r="O30" s="89" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,7 +3187,7 @@
       <c r="D31" s="88"/>
       <c r="E31" s="86"/>
       <c r="O31" s="89" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,7 +3197,7 @@
       <c r="D32" s="88"/>
       <c r="E32" s="86"/>
       <c r="O32" s="89" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,7 +3207,7 @@
       <c r="D33" s="88"/>
       <c r="E33" s="86"/>
       <c r="O33" s="89" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,7 +3217,7 @@
       <c r="D34" s="88"/>
       <c r="E34" s="86"/>
       <c r="O34" s="89" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,7 +3227,7 @@
       <c r="D35" s="88"/>
       <c r="E35" s="86"/>
       <c r="O35" s="89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,7 +3237,7 @@
       <c r="D36" s="88"/>
       <c r="E36" s="86"/>
       <c r="O36" s="89" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,7 +3247,7 @@
       <c r="D37" s="88"/>
       <c r="E37" s="86"/>
       <c r="O37" s="89" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,4891 +3257,4882 @@
       <c r="D38" s="88"/>
       <c r="E38" s="86"/>
       <c r="O38" s="89" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="85"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="86"/>
+      <c r="A39" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="91" t="n">
+        <f aca="false">SUBTOTAL(103,B13:B38)</f>
+        <v>5</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
       <c r="O39" s="89" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="91" t="n">
-        <f aca="false">SUBTOTAL(103,B13:B39)</f>
-        <v>6</v>
-      </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
       <c r="O40" s="89" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O41" s="89" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O42" s="89" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O43" s="89" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O44" s="89" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O45" s="89" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O46" s="89" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O47" s="89" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O48" s="89" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O49" s="89" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O50" s="89" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O51" s="89" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O52" s="89" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O53" s="89" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O54" s="89" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O55" s="89" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O56" s="89" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O57" s="89" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O58" s="89" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O59" s="89" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O60" s="89" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O61" s="89" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O62" s="89" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O63" s="89" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O64" s="89" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O65" s="89" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O66" s="89" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O67" s="89" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O68" s="89" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O69" s="89" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O70" s="89" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O71" s="89" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O72" s="89" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O73" s="89" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O74" s="89" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O75" s="89" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O76" s="89" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O77" s="89" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O78" s="89" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O79" s="89" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O80" s="89" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O81" s="89" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O82" s="89" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O83" s="89" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O84" s="89" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O85" s="89" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O86" s="89" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O87" s="89" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O88" s="89" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O89" s="89" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O90" s="89" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O91" s="89" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O92" s="89" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O93" s="89" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O94" s="89" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O95" s="89" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O96" s="89" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O97" s="89" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O98" s="89" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O99" s="89" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O100" s="89" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O101" s="89" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O102" s="89" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O103" s="89" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O104" s="89" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O105" s="89" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O106" s="89" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O107" s="89" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O108" s="89" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O109" s="89" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O110" s="89" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O111" s="89" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O112" s="89" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O113" s="89" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O114" s="89" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O115" s="89" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O116" s="89" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O117" s="89" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O118" s="89" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O119" s="89" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O120" s="89" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O121" s="89" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O122" s="89" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O123" s="89" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O124" s="89" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O125" s="89" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O126" s="89" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O127" s="89" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O128" s="89" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O129" s="89" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O130" s="89" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O131" s="89" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O132" s="89" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O133" s="89" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O134" s="89" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O135" s="89" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O136" s="89" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O137" s="89" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O138" s="89" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O139" s="89" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O140" s="89" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O141" s="89" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O142" s="89" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O143" s="89" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O144" s="89" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O145" s="89" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O146" s="89" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O147" s="89" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O148" s="89" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O149" s="89" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O150" s="89" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O151" s="89" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O152" s="89" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O153" s="89" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O154" s="89" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O155" s="89" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O156" s="89" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O157" s="89" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O158" s="89" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O159" s="89" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O160" s="89" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O161" s="89" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O162" s="89" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O163" s="89" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O164" s="89" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O165" s="89" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O166" s="89" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O167" s="89" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O168" s="89" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O169" s="89" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O170" s="89" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O171" s="89" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O172" s="89" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O173" s="89" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O174" s="89" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O175" s="89" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O176" s="89" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O177" s="89" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O178" s="89" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O179" s="89" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O180" s="89" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O181" s="89" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O182" s="89" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O183" s="89" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O184" s="89" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O185" s="89" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O186" s="89" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O187" s="89" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O188" s="89" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O189" s="89" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O190" s="89" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O191" s="89" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O192" s="89" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O193" s="89" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O194" s="89" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O195" s="89" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O196" s="89" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O197" s="89" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O198" s="89" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O199" s="89" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O200" s="89" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O201" s="89" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O202" s="89" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O203" s="89" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O204" s="89" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O205" s="89" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O206" s="89" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O207" s="89" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O208" s="89" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O209" s="89" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O210" s="89" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O211" s="89" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O212" s="89" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O213" s="89" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O214" s="89" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O215" s="89" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O216" s="89" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O217" s="89" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O218" s="89" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O219" s="89" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O220" s="89" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O221" s="89" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O222" s="89" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O223" s="89" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O224" s="89" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O225" s="89" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O226" s="89" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O227" s="89" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O228" s="89" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O229" s="89" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O230" s="89" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O231" s="89" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O232" s="89" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O233" s="89" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O234" s="89" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O235" s="89" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O236" s="89" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O237" s="89" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O238" s="89" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O239" s="89" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O240" s="89" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O241" s="89" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O242" s="89" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O243" s="89" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O244" s="89" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O245" s="89" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O246" s="89" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O247" s="89" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O248" s="89" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O249" s="89" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O250" s="89" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O251" s="89" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O252" s="89" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O253" s="89" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O254" s="89" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O255" s="89" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O256" s="89" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O257" s="89" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O258" s="89" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O259" s="89" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O260" s="89" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O261" s="89" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O262" s="89" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O263" s="89" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O264" s="89" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O265" s="89" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O266" s="89" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O267" s="89" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O268" s="89" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O269" s="89" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O270" s="89" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O271" s="89" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O272" s="89" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O273" s="89" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O274" s="89" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O275" s="89" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O276" s="89" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O277" s="89" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O278" s="89" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O279" s="89" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O280" s="89" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O281" s="89" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O282" s="89" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O283" s="89" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O284" s="89" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O285" s="89" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O286" s="89" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O287" s="89" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O288" s="89" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O289" s="89" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O290" s="89" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O291" s="89" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O292" s="89" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O293" s="89" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O294" s="89" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O295" s="89" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O296" s="89" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O297" s="89" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O298" s="89" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O299" s="89" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O300" s="89" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O301" s="89" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O302" s="89" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O303" s="89" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O304" s="89" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O305" s="89" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O306" s="89" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O307" s="89" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O308" s="89" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O309" s="89" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O310" s="89" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O311" s="89" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O312" s="89" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O313" s="89" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O314" s="89" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O315" s="89" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O316" s="89" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O317" s="89" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O318" s="89" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O319" s="89" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O320" s="89" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O321" s="89" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O322" s="89" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O323" s="89" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O324" s="89" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O325" s="89" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O326" s="89" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O327" s="89" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O328" s="89" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O329" s="89" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O330" s="89" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O331" s="89" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O332" s="89" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O333" s="89" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O334" s="89" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O335" s="89" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O336" s="89" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O337" s="89" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O338" s="89" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O339" s="89" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O340" s="89" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O341" s="89" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O342" s="89" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O343" s="89" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O344" s="89" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O345" s="89" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O346" s="89" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O347" s="89" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O348" s="89" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O349" s="89" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O350" s="89" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O351" s="89" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O352" s="89" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O353" s="89" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O354" s="89" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O355" s="89" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O356" s="89" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O357" s="89" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O358" s="89" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O359" s="89" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O360" s="89" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O361" s="89" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O362" s="89" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O363" s="89" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O364" s="89" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O365" s="89" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O366" s="89" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O367" s="89" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O368" s="89" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O369" s="89" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O370" s="89" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O371" s="89" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O372" s="89" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O373" s="89" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O374" s="89" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O375" s="89" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O376" s="89" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O377" s="89" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O378" s="89" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O379" s="89" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O380" s="89" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O381" s="89" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O382" s="89" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O383" s="89" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O384" s="89" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O385" s="89" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O386" s="89" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O387" s="89" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O388" s="89" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O389" s="89" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O390" s="89" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O391" s="89" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O392" s="89" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O393" s="89" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O394" s="89" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O395" s="89" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O396" s="89" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O397" s="89" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O398" s="89" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O399" s="89" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O400" s="89" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O401" s="89" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O402" s="89" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O403" s="89" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O404" s="89" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O405" s="89" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O406" s="89" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O407" s="89" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O408" s="89" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O409" s="89" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O410" s="89" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O411" s="89" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O412" s="89" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O413" s="89" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O414" s="89" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O415" s="89" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O416" s="89" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O417" s="89" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O418" s="89" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O419" s="89" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O420" s="89" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O421" s="89" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O422" s="89" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O423" s="89" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O424" s="89" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O425" s="89" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O426" s="89" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O427" s="89" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O428" s="89" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O429" s="89" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O430" s="89" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O431" s="89" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O432" s="89" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O433" s="89" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O434" s="89" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O435" s="89" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O436" s="89" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O437" s="89" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O438" s="89" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O439" s="89" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O440" s="89" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O441" s="89" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O442" s="89" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O443" s="89" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O444" s="89" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O445" s="89" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O446" s="89" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O447" s="89" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O448" s="89" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O449" s="89" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O450" s="89" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O451" s="89" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O452" s="89" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O453" s="89" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O454" s="89" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O455" s="89" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O456" s="89" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O457" s="89" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O458" s="89" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O459" s="89" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O460" s="89" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O461" s="89" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O462" s="89" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O463" s="89" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O464" s="89" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O465" s="89" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O466" s="89" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O467" s="89" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O468" s="89" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O469" s="89" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O470" s="89" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O471" s="89" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O472" s="89" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O473" s="89" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O474" s="89" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O475" s="89" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O476" s="89" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O477" s="89" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O478" s="89" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O479" s="89" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O480" s="89" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O481" s="89" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O482" s="89" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O483" s="89" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O484" s="89" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O485" s="89" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O486" s="89" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O487" s="89" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O488" s="89" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O489" s="89" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O490" s="89" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O491" s="89" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O492" s="89" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O493" s="89" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O494" s="89" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O495" s="89" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O496" s="89" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O497" s="89" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O498" s="89" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O499" s="89" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O500" s="89" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O501" s="89" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O502" s="89" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O503" s="89" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O504" s="89" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O505" s="89" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O506" s="89" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O507" s="89" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O508" s="89" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O509" s="89" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O510" s="89" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O511" s="89" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O512" s="89" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O513" s="89" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O514" s="89" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O515" s="89" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O516" s="89" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O517" s="89" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O518" s="89" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O519" s="89" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O520" s="89" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O521" s="89" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O522" s="89" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O523" s="89" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O524" s="89" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O525" s="89" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O526" s="89" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O527" s="89" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O528" s="89" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O529" s="89" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O530" s="89" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O531" s="89" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O532" s="89" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O533" s="89" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O534" s="89" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O535" s="89" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O536" s="89" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O537" s="89" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O538" s="89" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O539" s="89" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O540" s="89" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O541" s="89" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O542" s="89" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O543" s="89" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O544" s="89" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O545" s="89" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O546" s="89" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O547" s="89" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O548" s="89" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O549" s="89" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O550" s="89" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O551" s="89" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O552" s="89" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O553" s="89" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O554" s="89" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O555" s="89" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O556" s="89" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O557" s="89" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O558" s="89" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O559" s="89" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O560" s="89" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O561" s="89" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O562" s="89" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O563" s="89" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O564" s="89" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O565" s="89" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O566" s="89" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O567" s="89" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O568" s="89" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O569" s="89" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O570" s="89" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O571" s="89" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O572" s="89" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O573" s="89" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O574" s="89" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O575" s="89" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O576" s="89" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O577" s="89" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O578" s="89" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O579" s="89" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O580" s="89" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O581" s="89" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O582" s="89" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O583" s="89" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O584" s="89" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O585" s="89" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O586" s="89" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O587" s="89" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O588" s="89" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O589" s="89" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O590" s="89" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O591" s="89" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O592" s="89" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O593" s="89" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O594" s="89" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O595" s="89" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O596" s="89" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O597" s="89" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O598" s="89" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O599" s="89" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O600" s="89" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O601" s="89" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O602" s="89" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O603" s="89" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O604" s="89" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O605" s="89" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O606" s="89" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O607" s="89" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O608" s="89" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O609" s="89" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O610" s="89" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O611" s="89" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O612" s="89" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O613" s="89" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O614" s="89" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O615" s="89" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O616" s="89" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O617" s="89" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O618" s="89" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O619" s="89" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O620" s="89" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O621" s="89" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O622" s="89" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O623" s="89" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O624" s="89" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O625" s="89" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O626" s="89" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O627" s="89" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O628" s="89" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O629" s="89" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O630" s="89" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O631" s="89" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O632" s="89" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O633" s="89" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O634" s="89" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O635" s="89" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O636" s="89" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O637" s="89" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O638" s="89" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O639" s="89" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O640" s="89" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O641" s="89" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O642" s="89" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O643" s="89" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O644" s="89" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O645" s="89" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O646" s="89" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O647" s="89" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O648" s="89" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O649" s="89" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O650" s="89" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O651" s="89" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O652" s="89" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O653" s="89" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O654" s="89" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O655" s="89" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O656" s="89" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O657" s="89" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O658" s="89" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O659" s="89" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O660" s="89" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O661" s="89" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O662" s="89" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O663" s="89" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O664" s="89" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O665" s="89" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O666" s="89" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O667" s="89" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O668" s="89" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O669" s="89" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O670" s="89" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O671" s="89" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O672" s="89" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O673" s="89" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O674" s="89" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O675" s="89" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O676" s="89" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O677" s="89" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O678" s="89" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O679" s="89" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O680" s="89" t="n">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O681" s="89" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O682" s="89" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O683" s="89" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O684" s="89" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O685" s="89" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O686" s="89" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O687" s="89" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O688" s="89" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O689" s="89" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O690" s="89" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O691" s="89" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O692" s="89" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O693" s="89" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O694" s="89" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O695" s="89" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O696" s="89" t="n">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O697" s="89" t="n">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O698" s="89" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O699" s="89" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O700" s="89" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O701" s="89" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O702" s="89" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O703" s="89" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O704" s="89" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O705" s="89" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O706" s="89" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O707" s="89" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O708" s="89" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O709" s="89" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O710" s="89" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O711" s="89" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O712" s="89" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O713" s="89" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O714" s="89" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O715" s="89" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O716" s="89" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O717" s="89" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O718" s="89" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O719" s="89" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O720" s="89" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O721" s="89" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O722" s="89" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O723" s="89" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O724" s="89" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O725" s="89" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O726" s="89" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O727" s="89" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O728" s="89" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O729" s="89" t="n">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O730" s="89" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O731" s="89" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O732" s="89" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O733" s="89" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O734" s="89" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O735" s="89" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O736" s="89" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O737" s="89" t="n">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O738" s="89" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O739" s="89" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O740" s="89" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O741" s="89" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O742" s="89" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O743" s="89" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O744" s="89" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O745" s="89" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O746" s="89" t="n">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O747" s="89" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O748" s="89" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O749" s="89" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O750" s="89" t="n">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O751" s="89" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O752" s="89" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O753" s="89" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O754" s="89" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O755" s="89" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O756" s="89" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O757" s="89" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O758" s="89" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O759" s="89" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O760" s="89" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O761" s="89" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O762" s="89" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O763" s="89" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O764" s="89" t="n">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O765" s="89" t="n">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O766" s="89" t="n">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O767" s="89" t="n">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O768" s="89" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O769" s="89" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O770" s="89" t="n">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O771" s="89" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O772" s="89" t="n">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O773" s="89" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O774" s="89" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O775" s="89" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O776" s="89" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O777" s="89" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O778" s="89" t="n">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O779" s="89" t="n">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O780" s="89" t="n">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O781" s="89" t="n">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O782" s="89" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O783" s="89" t="n">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O784" s="89" t="n">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O785" s="89" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O786" s="89" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O787" s="89" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O788" s="89" t="n">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O789" s="89" t="n">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O790" s="89" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O791" s="89" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O792" s="89" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O793" s="89" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O794" s="89" t="n">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O795" s="89" t="n">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O796" s="89" t="n">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O797" s="89" t="n">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O798" s="89" t="n">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O799" s="89" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O800" s="89" t="n">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O801" s="89" t="n">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O802" s="89" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O803" s="89" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O804" s="89" t="n">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O805" s="89" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O806" s="89" t="n">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O807" s="89" t="n">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O808" s="89" t="n">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O809" s="89" t="n">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O810" s="89" t="n">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O811" s="89" t="n">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O812" s="89" t="n">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O813" s="89" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O814" s="89" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O815" s="89" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O816" s="89" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O817" s="89" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O818" s="89" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O819" s="89" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O820" s="89" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O821" s="89" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O822" s="89" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O823" s="89" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O824" s="89" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O825" s="89" t="n">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O826" s="89" t="n">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O827" s="89" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O828" s="89" t="n">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O829" s="89" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O830" s="89" t="n">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O831" s="89" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O832" s="89" t="n">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O833" s="89" t="n">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O834" s="89" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O835" s="89" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O836" s="89" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O837" s="89" t="n">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O838" s="89" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O839" s="89" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O840" s="89" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O841" s="89" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O842" s="89" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O843" s="89" t="n">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O844" s="89" t="n">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O845" s="89" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O846" s="89" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O847" s="89" t="n">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O848" s="89" t="n">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O849" s="89" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O850" s="89" t="n">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O851" s="89" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O852" s="89" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O853" s="89" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O854" s="89" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O855" s="89" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O856" s="89" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O857" s="89" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O858" s="89" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O859" s="89" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O860" s="89" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O861" s="89" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O862" s="89" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O863" s="89" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O864" s="89" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O865" s="89" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O866" s="89" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O867" s="89" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O868" s="89" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O869" s="89" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O870" s="89" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O871" s="89" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O872" s="89" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O873" s="89" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O874" s="89" t="n">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O875" s="89" t="n">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O876" s="89" t="n">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O877" s="89" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O878" s="89" t="n">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O879" s="89" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O880" s="89" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O881" s="89" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O882" s="89" t="n">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O883" s="89" t="n">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O884" s="89" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O885" s="89" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O886" s="89" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O887" s="89" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O888" s="89" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O889" s="89" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O890" s="89" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O891" s="89" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O892" s="89" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O893" s="89" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O894" s="89" t="n">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O895" s="89" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O896" s="89" t="n">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O897" s="89" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O898" s="89" t="n">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O899" s="89" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O900" s="89" t="n">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O901" s="89" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O902" s="89" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O903" s="89" t="n">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O904" s="89" t="n">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O905" s="89" t="n">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O906" s="89" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O907" s="89" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O908" s="89" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O909" s="89" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O910" s="89" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O911" s="89" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O912" s="89" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O913" s="89" t="n">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O914" s="89" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O915" s="89" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O916" s="89" t="n">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O917" s="89" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O918" s="89" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O919" s="89" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O920" s="89" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O921" s="89" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O922" s="89" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O923" s="89" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O924" s="89" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O925" s="89" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O926" s="89" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O927" s="89" t="n">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O928" s="89" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O929" s="89" t="n">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O930" s="89" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O931" s="89" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O932" s="89" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O933" s="89" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O934" s="89" t="n">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O935" s="89" t="n">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O936" s="89" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O937" s="89" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O938" s="89" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O939" s="89" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O940" s="89" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O941" s="89" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O942" s="89" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O943" s="89" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O944" s="89" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O945" s="89" t="n">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O946" s="89" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O947" s="89" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O948" s="89" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O949" s="89" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O950" s="89" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O951" s="89" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O952" s="89" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O953" s="89" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O954" s="89" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O955" s="89" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O956" s="89" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O957" s="89" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O958" s="89" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O959" s="89" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O960" s="89" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O961" s="89" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O962" s="89" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O963" s="89" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O964" s="89" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O965" s="89" t="n">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O966" s="89" t="n">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O967" s="89" t="n">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O968" s="89" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O969" s="89" t="n">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O970" s="89" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O971" s="89" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O972" s="89" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O973" s="89" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O974" s="89" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O975" s="89" t="n">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O976" s="89" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O977" s="89" t="n">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O978" s="89" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O979" s="89" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O980" s="89" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O981" s="89" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O982" s="89" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O983" s="89" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O984" s="89" t="n">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O985" s="89" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O986" s="89" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O987" s="89" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O988" s="89" t="n">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O989" s="89" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O990" s="89" t="n">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O991" s="89" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O992" s="89" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O993" s="89" t="n">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O994" s="89" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O995" s="89" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O996" s="89" t="n">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O997" s="89" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O998" s="89" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O999" s="89" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1000" s="89" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1001" s="89" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1002" s="89" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1003" s="89" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1004" s="89" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1005" s="89" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1006" s="89" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1007" s="89" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1008" s="89" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1009" s="89" t="n">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1010" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O1010" s="89" t="n">
         <v>999</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A11:C11"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B13 B15:B39" type="textLength">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B13 B15:B38" type="textLength">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -8168,11 +8140,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D13:D39" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D13:D38" type="list">
       <formula1>$B$7:$B$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C13:C39" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C13:C38" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8213,7 +8185,7 @@
   <sheetData>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -8221,7 +8193,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="94" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="94"/>
@@ -8238,13 +8210,13 @@
         <v>52</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" s="96" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="96" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -8255,10 +8227,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" s="52" t="n">
         <v>2</v>
@@ -8275,10 +8247,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" s="52" t="n">
         <v>1</v>
@@ -8295,10 +8267,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="52" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="52" t="n">
         <v>1</v>
@@ -8315,10 +8287,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="52" t="n">
         <v>1</v>
@@ -8335,10 +8307,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="52" t="n">
         <v>1</v>
@@ -8355,10 +8327,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="52" t="n">
         <v>0.5</v>
@@ -8375,10 +8347,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D15" s="52" t="n">
         <v>0.5</v>
@@ -8395,10 +8367,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="52" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D16" s="52" t="n">
         <v>2</v>
@@ -8415,10 +8387,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" s="52" t="n">
         <v>1</v>
@@ -8435,10 +8407,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" s="52" t="n">
         <v>1</v>
@@ -8455,10 +8427,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D19" s="52" t="n">
         <v>1</v>
@@ -8475,10 +8447,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="52" t="n">
         <v>1</v>
@@ -8495,10 +8467,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D21" s="52" t="n">
         <v>1</v>
@@ -8515,7 +8487,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="99" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="99"/>
@@ -8540,7 +8512,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="101" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="101"/>
       <c r="D26" s="101"/>
@@ -8553,7 +8525,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="105" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D27" s="105"/>
       <c r="E27" s="105"/>
@@ -8561,15 +8533,15 @@
         <v>37</v>
       </c>
       <c r="G27" s="104" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="106" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" s="106"/>
       <c r="E28" s="106"/>
@@ -8583,10 +8555,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D29" s="106"/>
       <c r="E29" s="106"/>
@@ -8600,10 +8572,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="106"/>
       <c r="E30" s="106"/>
@@ -8617,10 +8589,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C31" s="106" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D31" s="106"/>
       <c r="E31" s="106"/>
@@ -8634,10 +8606,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D32" s="106"/>
       <c r="E32" s="106"/>
@@ -8651,10 +8623,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="52" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D33" s="106"/>
       <c r="E33" s="106"/>
@@ -8668,10 +8640,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C34" s="106" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D34" s="106"/>
       <c r="E34" s="106"/>
@@ -8685,10 +8657,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D35" s="106"/>
       <c r="E35" s="106"/>
@@ -8702,7 +8674,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="99" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C36" s="99"/>
       <c r="D36" s="99"/>
@@ -8778,7 +8750,7 @@
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="108"/>
       <c r="B1" s="109" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C1" s="109"/>
       <c r="D1" s="109"/>
@@ -9008,37 +8980,37 @@
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="108"/>
       <c r="B5" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="F5" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="G5" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="H5" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="I5" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="J5" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="113" t="s">
+      <c r="K5" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="L5" s="114" t="s">
         <v>131</v>
-      </c>
-      <c r="J5" s="113" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="114" t="s">
-        <v>134</v>
       </c>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
@@ -9087,7 +9059,7 @@
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="108"/>
       <c r="B6" s="115" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C6" s="116" t="n">
         <v>190</v>
@@ -9168,7 +9140,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="108"/>
       <c r="B7" s="115" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C7" s="117" t="n">
         <v>130</v>
@@ -9249,7 +9221,7 @@
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="108"/>
       <c r="B8" s="115" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C8" s="117" t="n">
         <v>140</v>
@@ -9330,7 +9302,7 @@
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="108"/>
       <c r="B9" s="115" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" s="117" t="n">
         <v>125</v>
@@ -10494,7 +10466,7 @@
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="108"/>
       <c r="B29" s="128" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C29" s="129"/>
       <c r="D29" s="129" t="n">
@@ -10585,7 +10557,7 @@
       <c r="H30" s="108"/>
       <c r="I30" s="108"/>
       <c r="J30" s="131" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K30" s="131"/>
       <c r="L30" s="132" t="n">
@@ -10638,7 +10610,7 @@
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="108"/>
       <c r="B31" s="133" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C31" s="134"/>
       <c r="D31" s="135"/>
